--- a/html/inf-ege/2019-12-04/inf-ege-2019-12-04-answers.xlsx
+++ b/html/inf-ege/2019-12-04/inf-ege-2019-12-04-answers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\InDev\OneDrive\ЕГЭ Информатика\ege-examples\html\inf-ege\2019-12-04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7c6f37c454dd190/ЕГЭ Информатика/ege-examples/html/inf-ege/2019-12-04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="14_{CD612B3A-5952-44FB-99CB-75432B46A31B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{303AA47A-77C0-4A2B-8336-B1269843B3BC}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="14_{CD612B3A-5952-44FB-99CB-75432B46A31B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3A92E870-60CC-4A25-86D2-87E30355D530}"/>
   <bookViews>
-    <workbookView xWindow="10890" yWindow="375" windowWidth="9450" windowHeight="10185" activeTab="1" xr2:uid="{5F128528-2A5A-4E15-BBB8-FA40BB8F617C}"/>
+    <workbookView xWindow="315" yWindow="1560" windowWidth="8355" windowHeight="7875" activeTab="1" xr2:uid="{5F128528-2A5A-4E15-BBB8-FA40BB8F617C}"/>
   </bookViews>
   <sheets>
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -449,9 +449,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -489,7 +489,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -595,7 +595,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1675,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A68D42F-2F3F-49F3-A9A1-DF54C1EE947F}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1845,7 +1845,7 @@
         <v>17</v>
       </c>
       <c r="V2" s="29">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="W2" s="29">
         <v>12</v>
@@ -2348,7 +2348,7 @@
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
